--- a/similarities/split_global/harmonic_similarity_timestamps_285.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_285.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,758 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj'], ['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A'], ['A', 'D', 'A']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:32.808000', '0:00:36.091000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:52.750498', '0:00:59.809365'), ('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=52.750498', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:13.260000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000')]</t>
+          <t>('0:00:05.915850', '0:00:14.867142')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.680294', '0:00:14.849092')]</t>
+          <t>('0:00:02.352018', '0:00:08.679455')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:08.605000', '0:00:11.726000')]</t>
+          <t>('0:00:24.580000', '0:00:32.940000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-173#t=3.680294']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=2.352018</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=8.605']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E/4']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:34.232000', '0:00:40.821000')]</t>
+          <t>('0:00:08.240000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+          <t>('0:00:00.980000', '0:00:08.880000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=34.232']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:maj6', 'D:maj6/5', 'G:maj6/5']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['Bb:maj6/5', 'G:min7', 'C:min7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:47.100000', '0:01:49.300000')]</t>
+          <t>('0:01:25.606734', '0:01:28.102879')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+          <t>('0:00:05', '0:00:06.180000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=107.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=85.606734</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=5.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:01:23.100000', '0:01:30.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:00:02.860000', '0:00:07.500000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['D:maj/A', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
+          <t>['G', 'G:min', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:58.620000', '0:01:05.560000')]</t>
+          <t>('0:00:05.860000', '0:00:13.500000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:29.719863', '0:00:35.722222')]</t>
+          <t>('0:01:02.879563', '0:01:11.679925')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=58.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=5.86</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=62.879563</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B', 'E/5', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:01:58.440000', '0:02:02')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:38.180000', '0:00:51.980000')]</t>
+          <t>('0:00:55.629773', '0:01:10.444104')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000')]</t>
+          <t>('0:00:05.400000', '0:00:14.840000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+          <t>('0:00:26.360000', '0:00:34.360000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=26.36</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F', 'C']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+          <t>('0:00:35.620000', '0:00:42.440000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+          <t>('0:00:37.740000', '0:00:40.640000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=35.62</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=37.74</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_41</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:03:26.500000', '0:03:29.360000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:56.279931', '0:01:00.633673')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=206.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-41#t=56.279931']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:min', 'B:min', 'F#:min']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min/G#', 'A#:min', 'F:min/G#']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:37.927913', '0:00:43.802561')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:33.840000', '0:01:49.380000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=37.927913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=93.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+          <t>('0:00:42.900000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:dim7']]</t>
+          <t>['D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'Eb:dim7']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.760000', '0:00:03.130000')]</t>
+          <t>('0:00:11.260000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.730000', '0:00:13.170000')]</t>
+          <t>('0:00:08.350000', '0:00:11.880000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=9.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
+          <t>('0:00:13.660000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:00:01.640000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=1.64</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
